--- a/tests/data/TestData.xlsx
+++ b/tests/data/TestData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="19540" yWindow="6120" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="10720" yWindow="6960" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="TestData.csv" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>col_number</t>
     <phoneticPr fontId="1"/>
@@ -133,6 +133,27 @@
     <rPh sb="2" eb="4">
       <t>ショシキ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>new line.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改行。</t>
+    <rPh sb="0" eb="2">
+      <t>カイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1234
+5678</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12,345
+678</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -197,7 +218,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -217,16 +238,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="21">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -236,6 +265,7 @@
     <cellStyle name="ハイパーリンク" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -246,6 +276,7 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="20" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -574,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -671,6 +702,20 @@
         <v>11</v>
       </c>
     </row>
+    <row r="6" spans="1:5" ht="31">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
